--- a/data/hotels_by_city/Dallas/Dallas_shard_750.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_750.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1412 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r548773677-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>56854</t>
+  </si>
+  <si>
+    <t>266041</t>
+  </si>
+  <si>
+    <t>548773677</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Good hotel, useless breakfast</t>
+  </si>
+  <si>
+    <t>The hotel was fine but the breakfast was virtually non-existent. Dry cereal or waffles. ALL sugar. Not a breakfast a traveler can appreciate. Would not stay here again based on the lack of any real breakfast.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r542480217-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>542480217</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>would stay again</t>
+  </si>
+  <si>
+    <t>it was a great location and price.it has smoking which is great but.....the entire top floor is smoking but still should be cleaned. the smoke was literally running down the walls. that is just unacceptable. i understand it is for smokers but it does not mean it should never be cleaned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r528135163-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>528135163</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>2nd Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was our second time to stay at this hotel. Nice, friendly staff. Both times the rooms have been clean and smell clean. Comfortable place to stay for a very affordable price. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r520939730-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>520939730</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Nice but not great.</t>
+  </si>
+  <si>
+    <t>This was a clean basic hotel.  The overhead light just inside the door of our room did not have a bulb.  When we asked the front desk we were told that the architects designed it wrong and no bulb would fit.  The room was OK.  Breakfast was fine if you live on carbohydrates.  The owner was at the desk and complained about working 7days a week for 14 years.  We won't be returning.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r518111493-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>518111493</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Was put in a handicapped room it's stunk like lice spray...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was put in a handicapped room it's stunk like lice spray or poison bathroom was so small that when I open the door it hit my toe and I broke it it bled very bad </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r517446093-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>517446093</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Room was bright!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was very bright at night since the parking lot light shined in the window. The blackout curtains should have been bigger around the window to get rid of the brightness. While the bed was comfortable it was hard to sleep with so much light in the room. (We were on the second floor facing the parking lot). This is an older property and while there were some updates the bathroom seemed to be overlooked. The room was clean though and the staff were friendly. As far as the breakfast goes it was just pastries (store bought), cereal, toast, yogurt, and waffles. No hot items. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r495069338-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>495069338</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Clean rooms, friendly staff, nice breakfast</t>
+  </si>
+  <si>
+    <t>The room was attractive and clean.  Easily booked using the Wyndham app. Check-n went smoothly. The front desk staff was amazing!  Both the evening staff and the morning staff at the front desk were again helpful, kind, personable, and friendly.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r492768451-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>492768451</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>the place is gross! Beds suck, carpets are threadbare, mildew smell everywhere</t>
+  </si>
+  <si>
+    <t>Hotel has a smell as you walk in, the hall carpets are threadbare, the room smells like mildew, beds super uncomfortable, the bathroom wasn't clean. Not a place I'd recommend to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r491530365-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>491530365</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Family Reunion</t>
+  </si>
+  <si>
+    <t>The General Manager was great as always, very helpful with anything we asked. The breakfast was great and always very clean, rooms were also very comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r480364783-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>480364783</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>I will stay there again the next time i am in the area</t>
+  </si>
+  <si>
+    <t>Its woth the money  i recomend this hotel to anyone but you need to get up early to eat their fantastic breakfast</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r471738821-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>471738821</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Pleasant stay with adequate accommodations. Breakfast bar a little light but good nun the less. Staff pleasant to deal with and helpful.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r455423268-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>455423268</t>
+  </si>
+  <si>
+    <t>01/28/2017</t>
+  </si>
+  <si>
+    <t>Charged my credit card without informing 100.00 for burn hole  on comforter, had smoking room, smoked but not while in b</t>
+  </si>
+  <si>
+    <t>Yes, please photograph bedding if you rent a smoking room at check in.  My experience when I've rented smoking room  80 percent of time there has been burn holes on comforter</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r446464387-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>446464387</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>The bed was amazing, and we had a wonderful night's sleep...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bed was amazing, and we had a wonderful night's sleep.  Overall a very enjoyable experience!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r446194818-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>446194818</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed here 3 times over the years traveling from Louisiana to Lubbock Tx and it's always nice. This time we brought two of our fur babies and loved that this is pet friendly. Check in was a breeze and the clerk was so nice. I will definitely stay here in the future. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r442365409-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>442365409</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>Good night rest.</t>
+  </si>
+  <si>
+    <t>Traveling to see daughter. Extremely tired when we got there. Night manager very helpful with getting room close to door due to us traveling with puppy. Room was clean, smelled clean. Close to restaurants.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r412502878-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>412502878</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Weatherford TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always a very pleasant place to stay. Very clean and appealing. I enjoy the manager also, he always remembers me. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r406228294-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>406228294</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>Bathroom sink wouldn't drain...other than that we have always had a good experience with this hotel and the manager</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r396612158-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>396612158</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great night's rest!</t>
+  </si>
+  <si>
+    <t>Wonderful accommodations, staff, and service!  Love staying here! Room quiet, very comfortable bed.  Clean.  Adequate breakfast for the price.  Staff very willing to help with Internet connection questions.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r391804403-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>391804403</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Entire hotel smelled like smoke.</t>
+  </si>
+  <si>
+    <t>This hotel and Staff could care less if you complain or not, this entire hotel smelled like smoke if your a smoker no problem, then our room was not up to 4 star rating at all, we had looked like pee staines on both comforters on our beds , the room had been smoked in, looked like snot on the walls . It was late after 10:30 when we checked in had reservations 1 week ahead of visit. They said there was no rooms available for our needs 3 Adults 2 children, would have left if it was not so late and very tired of driving all day. Desk clerk could have cared less. I would never ever stay there again.  STAY AWAY,MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel and Staff could care less if you complain or not, this entire hotel smelled like smoke if your a smoker no problem, then our room was not up to 4 star rating at all, we had looked like pee staines on both comforters on our beds , the room had been smoked in, looked like snot on the walls . It was late after 10:30 when we checked in had reservations 1 week ahead of visit. They said there was no rooms available for our needs 3 Adults 2 children, would have left if it was not so late and very tired of driving all day. Desk clerk could have cared less. I would never ever stay there again.  STAY AWAY,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r390772680-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>390772680</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Okay except there was no clock radio/alarm in the room--I pointed this out to the front desk whenI checked out--I had the alarm on my telephone so I was able to wake on time--I answered the question regarding problems below in the negative as it was not resolved when I checked out--the desk clerk said he would check in to the problem</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r390236485-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>390236485</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Can't beat the price!</t>
+  </si>
+  <si>
+    <t>This is the 2nd time we've stayed here. Dispite the worn carpet in the hall and a few minor details in the bathroom, everything else was good. Staff is very helpful and the price is reasonable. We will stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r383942758-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>383942758</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Wonderfully Clean and Quiet!</t>
+  </si>
+  <si>
+    <t>The SUPER 8 in Weatherford is a great place to stay!  Rates were reasonable and rooms were clean!    Everyone at hotel was very respectful and kind. We will be back!  This was our second stay here.  Breakfast was served nice and fresh.  There are major shopping areas right next to hotel.  Also a steak house within walking distance.  Nice place to stay!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r382460901-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>382460901</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Quick Wedding Weekend</t>
+  </si>
+  <si>
+    <t>I would avoid this hotel until Renovations are done....
+..... MASSIVE renovations......
+I pride myself on giving good reviews when we visit places, because my husband and I travel frequently with his work ....that being said .....we had an 8 hour drive down to Texas for a family wedding and an 8-hour drive home the day after, it was a very quick trip!!!.... the last thing I needed was to have to go into three different rooms before I found one that was halfway presentable. I had no choice but to stay here.
+I have posted pictures.
+The decor was completely shredded in one room (lamp, carpet, bedding)
+The second room was so smoke-filled in a non-smoking room that we couldnt breathe and the third room had stains on the mattress, a very strong mildew smell from the air conditioner (which made our wedding attire have a sour smell we found out the next day we people hugged us) and that's when we discovered the yellow water throughout the entire hotel.... by then it was almost midnight.
+So when I say massive Renovations, I mean they need to fix even their pipes. The gentleman at the front desk DID attempt to make us happy but after three dirty rooms, we still weren't satisfied and realized we just had to get the babies to sleep.
+This hotel has potential in every area until you walk into the rooms. I just feel...I would avoid this hotel until Renovations are done......... MASSIVE renovations......I pride myself on giving good reviews when we visit places, because my husband and I travel frequently with his work ....that being said .....we had an 8 hour drive down to Texas for a family wedding and an 8-hour drive home the day after, it was a very quick trip!!!.... the last thing I needed was to have to go into three different rooms before I found one that was halfway presentable. I had no choice but to stay here.I have posted pictures.The decor was completely shredded in one room (lamp, carpet, bedding)The second room was so smoke-filled in a non-smoking room that we couldnt breathe and the third room had stains on the mattress, a very strong mildew smell from the air conditioner (which made our wedding attire have a sour smell we found out the next day we people hugged us) and that's when we discovered the yellow water throughout the entire hotel.... by then it was almost midnight.So when I say massive Renovations, I mean they need to fix even their pipes. The gentleman at the front desk DID attempt to make us happy but after three dirty rooms, we still weren't satisfied and realized we just had to get the babies to sleep.This hotel has potential in every area until you walk into the rooms. I just feel they've been completely neglected and the owners need to spend the money to clean them up. The rooms are the most crucial part of a hotel stay. I gave this hotel one star because it would not allow me to give it a zero.MoreShow less</t>
+  </si>
+  <si>
+    <t>I would avoid this hotel until Renovations are done....
+..... MASSIVE renovations......
+I pride myself on giving good reviews when we visit places, because my husband and I travel frequently with his work ....that being said .....we had an 8 hour drive down to Texas for a family wedding and an 8-hour drive home the day after, it was a very quick trip!!!.... the last thing I needed was to have to go into three different rooms before I found one that was halfway presentable. I had no choice but to stay here.
+I have posted pictures.
+The decor was completely shredded in one room (lamp, carpet, bedding)
+The second room was so smoke-filled in a non-smoking room that we couldnt breathe and the third room had stains on the mattress, a very strong mildew smell from the air conditioner (which made our wedding attire have a sour smell we found out the next day we people hugged us) and that's when we discovered the yellow water throughout the entire hotel.... by then it was almost midnight.
+So when I say massive Renovations, I mean they need to fix even their pipes. The gentleman at the front desk DID attempt to make us happy but after three dirty rooms, we still weren't satisfied and realized we just had to get the babies to sleep.
+This hotel has potential in every area until you walk into the rooms. I just feel...I would avoid this hotel until Renovations are done......... MASSIVE renovations......I pride myself on giving good reviews when we visit places, because my husband and I travel frequently with his work ....that being said .....we had an 8 hour drive down to Texas for a family wedding and an 8-hour drive home the day after, it was a very quick trip!!!.... the last thing I needed was to have to go into three different rooms before I found one that was halfway presentable. I had no choice but to stay here.I have posted pictures.The decor was completely shredded in one room (lamp, carpet, bedding)The second room was so smoke-filled in a non-smoking room that we couldnt breathe and the third room had stains on the mattress, a very strong mildew smell from the air conditioner (which made our wedding attire have a sour smell we found out the next day we people hugged us) and that's when we discovered the yellow water throughout the entire hotel.... by then it was almost midnight.So when I say massive Renovations, I mean they need to fix even their pipes. The gentleman at the front desk DID attempt to make us happy but after three dirty rooms, we still weren't satisfied and realized we just had to get the babies to sleep.This hotel has potential in every area until you walk into the rooms. I just feel they've been completely neglected and the owners need to spend the money to clean them up. The rooms are the most crucial part of a hotel stay. I gave this hotel one star because it would not allow me to give it a zero.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r380958470-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>380958470</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Convenvient, comfortable and cordial.</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for 2 nights on a busy weekend.  We found the check-in process smooth and friendly.  The 2 bed room was comfortable and clean.  Beds were very comfortable and the rooms fairly quiet.  The hotel is located not far from the expressway, close to many restaurants and shopping in a very secure area.  There's even a medical emergency facility next door!  We took advantage of the outside pool (which we had to ourselves) and the workout room.  Extra clean towels were provided promptly when requested.  Front desk staff was always helpful and efficient.  The breakfast was somewhat limited compared to a Wingate by Wyndham stay, but was sufficient--waffles, cold or cold cereal, yogurt, toast, etc.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for 2 nights on a busy weekend.  We found the check-in process smooth and friendly.  The 2 bed room was comfortable and clean.  Beds were very comfortable and the rooms fairly quiet.  The hotel is located not far from the expressway, close to many restaurants and shopping in a very secure area.  There's even a medical emergency facility next door!  We took advantage of the outside pool (which we had to ourselves) and the workout room.  Extra clean towels were provided promptly when requested.  Front desk staff was always helpful and efficient.  The breakfast was somewhat limited compared to a Wingate by Wyndham stay, but was sufficient--waffles, cold or cold cereal, yogurt, toast, etc.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r374471742-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>374471742</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r367751454-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>367751454</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home away from home </t>
+  </si>
+  <si>
+    <t>Dinesh was the ultimate host! After being flooded out for 6 days, his humor was a break. Waffle maker does four minis at the same time. Rooms were great, fridge spacious. Walking distance to BWW, Logan's, Olive Garden, Taco Cabana, Kincaid Burgers (awesome), ElFenix, and retailers.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r366744143-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>366744143</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Very good Super 8</t>
+  </si>
+  <si>
+    <t>This is a large Super 8.  Very clean, large rooms.  Very good WiFi.  Hallway carpets are a bit worn.  Breakfast was good and well stocked.My wake up call went to the wrong room, but other than that a pleasant stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r356987427-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>356987427</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Do not be fooled, this place is a dump. I do not know how they got this rating. I was forced to stay here because I was having truck mechanical problems. I reserved a single king non smoking and received a double smoking.  Management says it all they had left. Funny , as the parking lot wasn't full. The carpet was worn and had big chunks missing.  The room smelled like a beer joint. There was no telephone in the room.  I've seen better breakfast at motel 6. Stay away.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r356492415-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>356492415</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Unbelievable-Got 2 C it 2 Believe it</t>
+  </si>
+  <si>
+    <t>as a traveling merchandiser staying/living in a hotel is a big part of my job. Every super 8 i have stayed at is exactly the same horrible, EXCEPT the Super 8 in Weatherford, TX. This hotel is without a doubt, THE BEST Super 8 i have ever stayed in. The rooms are very spacious with numerous outlets, comfortable beds (Beauty Rest mattress, with pillow top), 54" flat screen, excellent working micro/fridge, large bathroom and CLEAN.  The wifi has a strong signal and plenty of bandwidth to enjoy internet movies or games without buffering interruption. If i hadn't seen the super 8 sign i would have never believe it was a super 8. The staff is super friendly and courteous. I appreciate their hospitality and going the extra mile to make our stay super.MoreShow less</t>
+  </si>
+  <si>
+    <t>as a traveling merchandiser staying/living in a hotel is a big part of my job. Every super 8 i have stayed at is exactly the same horrible, EXCEPT the Super 8 in Weatherford, TX. This hotel is without a doubt, THE BEST Super 8 i have ever stayed in. The rooms are very spacious with numerous outlets, comfortable beds (Beauty Rest mattress, with pillow top), 54" flat screen, excellent working micro/fridge, large bathroom and CLEAN.  The wifi has a strong signal and plenty of bandwidth to enjoy internet movies or games without buffering interruption. If i hadn't seen the super 8 sign i would have never believe it was a super 8. The staff is super friendly and courteous. I appreciate their hospitality and going the extra mile to make our stay super.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r356223753-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>356223753</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Pleasent</t>
+  </si>
+  <si>
+    <t>The hotel is nice and served our needs, we were comfortable with the room/amenities. The only issue is the continental breakfast apart from waffles only had limited verity of options, would not technically class as continental. But would definitely stay again as the rates are competitively low and location is near to town center.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r340982429-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>340982429</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>Clean room, comfortable beds, and clean linens! An older hotel that has some wear but clean so no big deal considering the great price! Staff was friendly and would stay here again!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r340452579-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>340452579</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Good motel location</t>
+  </si>
+  <si>
+    <t>Nice motel and good location. Clean room and a satisfactory breakfast. I would stay at this motel again  oh yes funny ft desk management</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r339519788-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>339519788</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r331026887-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>331026887</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r330502340-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>330502340</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>it was a dark and rainy night</t>
+  </si>
+  <si>
+    <t>I was intending to drive home, but darkness and heavy rains made it seem prudent to stop at the Super 8 instead of subjecting myself to several more hours of stressful driving. The check-in process for an unreserved overnight stay was efficient and courteous, the room was basic but clean and quite comfortable. I slept well – much better than I would have if I had continued the drive! I got up early the next day to continue the drive and did not take advantage of the free breakfast. I will (plan to) stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r321262424-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>321262424</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Nice, clean place! Recommended for a night stay</t>
+  </si>
+  <si>
+    <t>Stayed at Super8, Weatherford for 1 night for a stopover. We were welcomed by a very nice man behind the frontdesk. The room was pretty large, very clean and had a nice kingsize bed.Breakfast is included, the free wifi was ok, so in all it was a good value for money.A lot of places to shop and eat within walking distance.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r313458725-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>313458725</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Last minute trip, the 800 reservation operator held my room for two hours, until I could get my card out and give it to Super 8 I stayed at. I was not given the price quoted when I got there, however.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r311267974-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>311267974</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Powell Texas</t>
+  </si>
+  <si>
+    <t>We stayed one night in Weatherford, Manager was very nice, had a wonderful smile, the whole place was very clean, the beds and pillows were very comfortable. It was in a great location we had all the restaurants, and department stores all around us.  Many within walking distance. It was quiet.  I would suggest to anyone in that area and traveling to definitely stay there.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r309958579-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>309958579</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Other Choices Available</t>
+  </si>
+  <si>
+    <t>I went to the Weatherford area for my 40th Class Reunion weekend.  My wife made the reservation which was based on money.  We had stayed there previously, also reservations made by her.  It had a bed that was clean and there were no strange odors.  This is the best I can say for the place.  The desk person had about as much of a customer relations demeanor as the concrete in the drive outside.  There were many other options in the area that other travelers were clearly choosing based on the cars in the parking lots.  You would have thought he would have been a little more congenial that we were staying there. There was extremely worn carpet in the halls which gave clear indication how little the owner felt about appearance to those staying there.If a bed is all you want then it comes cheaply.  If you are wanting a little more for your money.....well like I said there are many outstanding options in the same area for a very reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>I went to the Weatherford area for my 40th Class Reunion weekend.  My wife made the reservation which was based on money.  We had stayed there previously, also reservations made by her.  It had a bed that was clean and there were no strange odors.  This is the best I can say for the place.  The desk person had about as much of a customer relations demeanor as the concrete in the drive outside.  There were many other options in the area that other travelers were clearly choosing based on the cars in the parking lots.  You would have thought he would have been a little more congenial that we were staying there. There was extremely worn carpet in the halls which gave clear indication how little the owner felt about appearance to those staying there.If a bed is all you want then it comes cheaply.  If you are wanting a little more for your money.....well like I said there are many outstanding options in the same area for a very reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r292795803-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>292795803</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
+    <t>clean room friendly staff and after 9 hours on the road was wonderful to walk into a cool room....only drawback....bed was hard</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r286447566-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>286447566</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r285635986-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>285635986</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a good stay with my little family.  Rooms were nice and clean and beds super comfortable.  The staff was friendly both when checking in @midnight and checking out. Breakfast was good and filling and had a variety of choices that were enough for anyone. Nothing needs to be changed!!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r282351256-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>282351256</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff but hotel is showing its age</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a number of times and its always the same. One of the lowest rates in town and a decent place to stay. Sits in the middle of a restaurant mecca so 10 or more places to eat are within walking distance. Hotel is showing its age with some threadbare carpets, outdated furniture and cheaply done repairs. But if you are interested in a cheap place to stay with food all around you in a good part of town - this is your hotel.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r281549535-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>281549535</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>nice motel good price</t>
+  </si>
+  <si>
+    <t>every  time I am through this area I stay here. Great staff, clean rooms with all the amenities. New flat screen tv,microwave,fridge. the MOST comfy beds. there are plenty of the popular restaurants within walking distance. Nice motel,good price for this area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r279622403-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>279622403</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Don't park under the tree</t>
+  </si>
+  <si>
+    <t>Front desk person was nice. Room was clean enough and bed and pillows comfortable.....but the mosquito that bit me 6 times I hope is dead.....also I awoke to my van covered in bird crap!!!! Never going back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r267408662-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>267408662</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>Clean hotel with very pleasant staff -- we enjoyed talking with Dinesh and his wife several times during our stay. Good breakfast in pleasant lobby area.  Comfortable room and good bed. A little tricky to find, and hotel shows some wear (carpets in hall), but a good place to stay!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r264986530-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>264986530</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>OK room; horrible location</t>
+  </si>
+  <si>
+    <t>This Super 8 is REALLY hard to get to. It is surrounded by strip malls and large parking lots which are confusing. I tried to get to Target on the other side of the freeway for some grocery staples (my husband and I eat organic/vegetarian, none of the nearby chain restaurants would have worked for us), and got stuck going the wrong way on the freeway in BOTH directions, 6 miles out of the way. Be very careful navigating this area! It turned out there was a Wal Mart at the end of the street which my phone did not tell me about. Uncool.The room was clean enough. Very spacious; larger than necessary, I thought. The corners along the walls were caked in dust. The air conditioner smelled horribly of mildew when turned on. On the plus side, the proprietor was very personable and a joker. There is an ENORMOUS chandelier in the entryway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This Super 8 is REALLY hard to get to. It is surrounded by strip malls and large parking lots which are confusing. I tried to get to Target on the other side of the freeway for some grocery staples (my husband and I eat organic/vegetarian, none of the nearby chain restaurants would have worked for us), and got stuck going the wrong way on the freeway in BOTH directions, 6 miles out of the way. Be very careful navigating this area! It turned out there was a Wal Mart at the end of the street which my phone did not tell me about. Uncool.The room was clean enough. Very spacious; larger than necessary, I thought. The corners along the walls were caked in dust. The air conditioner smelled horribly of mildew when turned on. On the plus side, the proprietor was very personable and a joker. There is an ENORMOUS chandelier in the entryway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r259971172-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>259971172</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>awesome stay!!!</t>
+  </si>
+  <si>
+    <t>have stayed there many times. so much in fact that staff knows me well. always clean and well maintained. close to resturants and shopping if needed.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r246765694-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>246765694</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Nice enough</t>
+  </si>
+  <si>
+    <t>One of the nicest Super 8s that I have stayed in recently.  The room was large and comfy.  It also contained all of the amenities that I am accustomed to.  The location is great, just next to the highway and there are several eateries within a short walking distance.   Additionally the room was actually clean, something one cannot count on with Super 8.  Overall, I would be very likely to stay here again</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r245556645-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>245556645</t>
+  </si>
+  <si>
+    <t>12/22/2014</t>
+  </si>
+  <si>
+    <t>Excellent service and very clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean excellent service very helpful I called to get directions and super nice and gave me exact directions would stay there afain </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r242963655-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>242963655</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Love staying here.</t>
+  </si>
+  <si>
+    <t>Our truck broke down west of Weatherford,  and was towed to a dealership here. We are having to spend 4 nights here here and the manager, Dinesh, has been very helpful, and is making us feel at home. They also have the lowest rates around.All in all, we couldn't be happier with our choice. My wife talked Dinesh into letting her put up the Christmas tree, so she is happy too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r241415000-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>241415000</t>
+  </si>
+  <si>
+    <t>11/25/2014</t>
+  </si>
+  <si>
+    <t>Great Prices, Great Serivce, Clean rooms!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only place we stay in Weatherford,TX. Just stayed there our 3rd time. We own our own company and we put up all our employees there and we ourselves stay when we are in town. The owner is very nice and friendly, clean rooms, nice breakfast and great prices, Would recommend to anyone going to the Weatherford area! </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r239833732-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>239833732</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>Clean room at a fair price and the staff was very helpful with information and points of interest.. Nice shopping mall and places to eat across the street. This was our second stay at this location. Easy on and off Interstate 20</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r237497106-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>237497106</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Nice, Spacious and clean</t>
+  </si>
+  <si>
+    <t>The room is nice, spacious and clean. Check in was quick and the receptionist was nice and attentive. They have a pretty good channel selection on their t.v. Pretty nice town and pretty good hotel. We'll stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r234800769-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>234800769</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Fine for one night!!!!</t>
+  </si>
+  <si>
+    <t>We needed a place to stop and rest on a long road trip.  Not a resort, but clean and quiet and cheap.  Mattress was a little flat and the towels were thin.  The TV was good and the breakfast was adequate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r232722830-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>232722830</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>highly recommend Super 8 Weatherford</t>
+  </si>
+  <si>
+    <t>Very clean, friendly and helpful staff, great location, good breakfast with several choices. By far the best Super 8 I have stayed in.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r220977457-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>220977457</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r214394130-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>214394130</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Over all service was good, not enough snacks in  vending...</t>
+  </si>
+  <si>
+    <t>Over all service was good, not enough snacks in  vending machine. Room was non smoking . We  did smell a lot of cig.smoke .</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r214215429-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>214215429</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>I would really like to thank the maintenance man that was on duty the morning of July5,2014. As we were leaving my wife had black spell this gentleman came and help me get her in my truck, and made sure that seat belt was on.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r213814530-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>213814530</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r210656510-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>210656510</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r210471358-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>210471358</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r209792150-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>209792150</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>June stay</t>
+  </si>
+  <si>
+    <t>Sweet staff, room was very clean. Beds were harder than I like, but my husband was very comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r205008406-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>205008406</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Almost like home</t>
+  </si>
+  <si>
+    <t>My wife and I stayed 9 days and it was almost like home. The room, bathroom, and public areas were top notch. The mattress was also very comfortable. The owner and general manager, Dinesh Patel, treated us like family. His staff also was courteous, helpful, and friendly, especially Robbie. The room was cleaned daily. Next time we go to weatherford we know where to stay! Thank you again Dinesh, Doc Z</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r204355431-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>204355431</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Overall Ok, would stay again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at this hotel for the first time recently. The hotel and rooms were clean, although the bedding could be upgraded.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r200649664-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>200649664</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r195975656-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>195975656</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Clean, comfortable hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On our way home to abilene from Dallas the roads got icy so we stopped here for the night. Front desk clerk was friendly and knowledgeable. The lobby was clean and uncluttered. We had a smoking, king bed room. It was clean and well apportioned. Pleasantly surprised to have frig and microwave in the room. The bed was firm and comfortable. The ice machine on our floor was out of order and the Coke machine vended Sprite instead of Mr Pibb. The hotel is dog friendly and at $70/night, it was a good value. We would stay here again and recommend it to others. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r195427902-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>195427902</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>Just average....</t>
+  </si>
+  <si>
+    <t>We stopped over on our way to Lubbock.  Had read reviews about rude manager, but i had no complaint...he was courteous and chatted about living in SoCal when he learned we were headed to Palm Springs.  Bed ok and room clean....fridge kept my pre mixed martinis cold.  Great exfoliating towels (translate to thin and scratchy) but no big deal for 1 night.  Breakfast a little light with cold cereals, mini waffles, milk, and toast and rolls.  All a person needed to start the day.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r194742001-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>194742001</t>
+  </si>
+  <si>
+    <t>02/20/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r186513224-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>186513224</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>super 8 weatherford TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All in all, it was good. But the towels were awful. One night my towel looked more like a floor mat than a towel. Very rough and scratchy felt dirty . </t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r186112192-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>186112192</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>DON'T STAY HERE</t>
+  </si>
+  <si>
+    <t>I have stayed at this before but in November I stayed here only to have my truck vandelized. They actually crawled under the truck and stole my exhaust in the parking lot of this hotel. I was informed by the manager that the cameras doesn' cover the whole parking lot and they are not going to do anything to cover my 1,000.00 ded on my insurance. NOW I HAVE TO TURN THIS OVER TO MY ATTORNEY. They should be responsible enough to at least install a suffcient security system to protect their customers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r185008189-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>185008189</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>Best Value in Weatherford</t>
+  </si>
+  <si>
+    <t>During a recent trip to Weatherford, I booked a room at the Super 8 because it offered the lowest price among the five top-rated hotels by a significant margin. Previous reviewers had mentioned the friendliness and cleanliness of the facility, and after spending four nights I have to agree.  I was greeted warmly by the hotel manager, Dinesh, and found the room to be exceptionally clean and tidy. The in-room amenities are straightforward with no frills, but far exceed the quality you would expect in this price range.  The continental breakfast was a nice touch in the morning, and the hotel is very well-located in proximity to shopping and dining options in addition to having excellent freeway access.  There is an exercise room and pool, as well as a business center with computer.  Some reviewers have spoken of a too-firm bed, but that is subjective and I personally found the mattress extremely comfortable. About the only drawback I noted was the lack of a guest laundry for washing my workout clothing, although a commercial laundromat is just a short drive away.If you are visiting Weatherford for either a short or extended stay, it would be well worth your while to take a look at the Super 8.  You would be hard pressed to find a better value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>During a recent trip to Weatherford, I booked a room at the Super 8 because it offered the lowest price among the five top-rated hotels by a significant margin. Previous reviewers had mentioned the friendliness and cleanliness of the facility, and after spending four nights I have to agree.  I was greeted warmly by the hotel manager, Dinesh, and found the room to be exceptionally clean and tidy. The in-room amenities are straightforward with no frills, but far exceed the quality you would expect in this price range.  The continental breakfast was a nice touch in the morning, and the hotel is very well-located in proximity to shopping and dining options in addition to having excellent freeway access.  There is an exercise room and pool, as well as a business center with computer.  Some reviewers have spoken of a too-firm bed, but that is subjective and I personally found the mattress extremely comfortable. About the only drawback I noted was the lack of a guest laundry for washing my workout clothing, although a commercial laundromat is just a short drive away.If you are visiting Weatherford for either a short or extended stay, it would be well worth your while to take a look at the Super 8.  You would be hard pressed to find a better value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r175751085-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>175751085</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r167704465-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>167704465</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Positive stay</t>
+  </si>
+  <si>
+    <t>First time to stay here and would stay again. Decent size room - very clean. Microwave and mini fridge. Good price. Good location - very close to many great restaurants. Small but clean looking pool but didn't get a chance to try. I wouldn't honeymoon here but definitely a good night's stay.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r163025803-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>163025803</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r159914304-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>159914304</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>pleasant stay</t>
+  </si>
+  <si>
+    <t>I stay at this hotel everytime I go to weatherford, texas because the staff always make you feel welcome and like you are a friend coming back.  The rooms are clean and cmfortable.  the frnt desk person was very helpful, he gave us a room with handicap facilitiy withut asking or charging us for the difference when he saw my mom was using a walker. Is the thoughtful things that you get that make all the difference. i will mst likely keep staying there on my next visit.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r156610793-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>156610793</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>I have stayed here before and i am always treated very nice...</t>
+  </si>
+  <si>
+    <t>I have stayed here before and i am always treated very nice and the stay is very pleasant. I m going to the area again in two weeks and i ll be using the hotel again .the rooms are clean and my mother being handicap we were given a roon where she was very comfortable.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r153398881-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>153398881</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean and large rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kid friendly, animal friendly with clean rooms and showers. Greeted like we were family - the ones you like. Offered a complimentary paper, advised of free WiFi password without having to ask.  Too bad it was a one  time trip. Super 8 was not our first choice but it will be now. Hope the others measure up to this one. Great for the price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r143447662-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>143447662</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>rayt190</t>
+  </si>
+  <si>
+    <t>This was a very nice clean motel, the price was fair. The staff friendly and helpful. The only negitive thing was the orange barrels detouring traffic due to construction near the hotel. The City of Weatherford or the Texas Highway department should do a better job of routing traffic to near by businesses.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r143445487-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>143445487</t>
+  </si>
+  <si>
+    <t>looks can be deceiving</t>
+  </si>
+  <si>
+    <t>The hotel looks really nice, but once inside it is need of repairs! The person who greeted us was quite rude!!!!!!!! Ask me if my credit card was bogus and if he'd had to run it again!! I had my pets with me and he asked if they were well trained, and of course they are.... He made a soft statement of "well they'd better be!!"  If we weren't so tired, I would have gone to another hotel, but I was stuck! Once we got to the room... it was basically clean, with the bathroom fan hanging on by wires, a broken light over the sink, no ashtrays in a smoking room, only 2 towels that were thin and torn, and the clock wouldnt work.  Also the walls are paper think so you can hear every body around you!! Definitely not the quality of many other Super 8's I've used!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel looks really nice, but once inside it is need of repairs! The person who greeted us was quite rude!!!!!!!! Ask me if my credit card was bogus and if he'd had to run it again!! I had my pets with me and he asked if they were well trained, and of course they are.... He made a soft statement of "well they'd better be!!"  If we weren't so tired, I would have gone to another hotel, but I was stuck! Once we got to the room... it was basically clean, with the bathroom fan hanging on by wires, a broken light over the sink, no ashtrays in a smoking room, only 2 towels that were thin and torn, and the clock wouldnt work.  Also the walls are paper think so you can hear every body around you!! Definitely not the quality of many other Super 8's I've used!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r142470473-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>142470473</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>exceeds super 8 standards</t>
+  </si>
+  <si>
+    <t>stayed there 9-23. It passed detailed bug inspection,behind headboard,etc, and had a grade A overall cleanness.The only thing I can complain about were the towels not being soft but almost scratchy.The location is very convenient and close to many resturants and other stores</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r122494612-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>122494612</t>
+  </si>
+  <si>
+    <t>01/03/2012</t>
+  </si>
+  <si>
+    <t>EXCELLENT VALUE!</t>
+  </si>
+  <si>
+    <t>Was an overnight stop during a cross country trek from the east to west coasts .... A pleasant surprise at the level of quality found, given the discount price range.  Thus, an EXCELLENT VALUE!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Dinesh P, General Manager at Super 8 Weatherford, responded to this reviewResponded January 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2012</t>
+  </si>
+  <si>
+    <t>Was an overnight stop during a cross country trek from the east to west coasts .... A pleasant surprise at the level of quality found, given the discount price range.  Thus, an EXCELLENT VALUE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r118409755-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>118409755</t>
+  </si>
+  <si>
+    <t>09/21/2011</t>
+  </si>
+  <si>
+    <t>Very Surprised</t>
+  </si>
+  <si>
+    <t>This hotel is nothing fancy but is nice and certainly was quite a surprise for $49.00 a night. From check in to check out the hotel manager was friendly and very willing to try and accommodate. The room is spacious and had extras like a microwave and fridge. The room was clean and the a/c was cold. The bed was a bit uncomfortable but not too bad. The breakfast was nothing exciting, but for the price better than I would have expected. I would recommend this hotel to anyone on a budget!</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r117336999-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>117336999</t>
+  </si>
+  <si>
+    <t>08/27/2011</t>
+  </si>
+  <si>
+    <t>CLEAN HOTEL, FRIENDLY CHECK IN</t>
+  </si>
+  <si>
+    <t>This hotel is great for an overnight stay with clean basic rooms for a fair price, The check in staff was friendly and we would stay there again.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r6093703-Super_8_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>6093703</t>
+  </si>
+  <si>
+    <t>11/08/2006</t>
+  </si>
+  <si>
+    <t>Last Room in Town, Almost</t>
+  </si>
+  <si>
+    <t>On a recent roadtrip, my daughter and I reached the end of our day's travels in Weatherford, TX.  We started trying to find a room in town and found no vacancy at several establishments. (We had been unaware at the time that  NASCAR race attendees had taken most of the rooms in town.)  At Super 8 we were fortunate to find a n/s room with a king-size bed.  The room was clean and spacious with a nice sofa area which provided a computer work space for my daughter.   The bed was clean and comfortable and the bathroom was very nice, as well.  I would have rated the stay above average except for the totally below average continental breakfast which had only bagles, doughnuts and English muffins along with coffee and orange juice.  There was no cereal, fruit, or milk.  We were very disappointed in the breakfast after staying in such a nice room.MoreShow less</t>
+  </si>
+  <si>
+    <t>On a recent roadtrip, my daughter and I reached the end of our day's travels in Weatherford, TX.  We started trying to find a room in town and found no vacancy at several establishments. (We had been unaware at the time that  NASCAR race attendees had taken most of the rooms in town.)  At Super 8 we were fortunate to find a n/s room with a king-size bed.  The room was clean and spacious with a nice sofa area which provided a computer work space for my daughter.   The bed was clean and comfortable and the bathroom was very nice, as well.  I would have rated the stay above average except for the totally below average continental breakfast which had only bagles, doughnuts and English muffins along with coffee and orange juice.  There was no cereal, fruit, or milk.  We were very disappointed in the breakfast after staying in such a nice room.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +2051,5429 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>193</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" t="s">
+        <v>209</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>204</v>
+      </c>
+      <c r="O30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J31" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" t="s">
+        <v>214</v>
+      </c>
+      <c r="L31" t="s">
+        <v>215</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>204</v>
+      </c>
+      <c r="O31" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>217</v>
+      </c>
+      <c r="J32" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" t="s">
+        <v>219</v>
+      </c>
+      <c r="L32" t="s">
+        <v>220</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>221</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>223</v>
+      </c>
+      <c r="J33" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" t="s">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s">
+        <v>226</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>221</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>221</v>
+      </c>
+      <c r="O34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>233</v>
+      </c>
+      <c r="O35" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" t="s">
+        <v>237</v>
+      </c>
+      <c r="L36" t="s">
+        <v>238</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>233</v>
+      </c>
+      <c r="O36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>240</v>
+      </c>
+      <c r="J37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L37" t="s">
+        <v>243</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>244</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" t="s">
+        <v>248</v>
+      </c>
+      <c r="L38" t="s">
+        <v>249</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>250</v>
+      </c>
+      <c r="O38" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39" t="s">
+        <v>253</v>
+      </c>
+      <c r="K39" t="s">
+        <v>254</v>
+      </c>
+      <c r="L39" t="s">
+        <v>255</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>257</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>258</v>
+      </c>
+      <c r="J40" t="s">
+        <v>259</v>
+      </c>
+      <c r="K40" t="s">
+        <v>260</v>
+      </c>
+      <c r="L40" t="s">
+        <v>261</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" t="s">
+        <v>267</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>268</v>
+      </c>
+      <c r="O41" t="s">
+        <v>83</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>269</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>270</v>
+      </c>
+      <c r="J42" t="s">
+        <v>271</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>268</v>
+      </c>
+      <c r="O42" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>273</v>
+      </c>
+      <c r="J43" t="s">
+        <v>274</v>
+      </c>
+      <c r="K43" t="s">
+        <v>275</v>
+      </c>
+      <c r="L43" t="s">
+        <v>276</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>268</v>
+      </c>
+      <c r="O43" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>277</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>278</v>
+      </c>
+      <c r="J44" t="s">
+        <v>279</v>
+      </c>
+      <c r="K44" t="s">
+        <v>280</v>
+      </c>
+      <c r="L44" t="s">
+        <v>281</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>282</v>
+      </c>
+      <c r="O44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>283</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>284</v>
+      </c>
+      <c r="J45" t="s">
+        <v>285</v>
+      </c>
+      <c r="K45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L45" t="s">
+        <v>287</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>282</v>
+      </c>
+      <c r="O45" t="s">
+        <v>65</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>288</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>289</v>
+      </c>
+      <c r="J46" t="s">
+        <v>290</v>
+      </c>
+      <c r="K46" t="s">
+        <v>291</v>
+      </c>
+      <c r="L46" t="s">
+        <v>292</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>282</v>
+      </c>
+      <c r="O46" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>294</v>
+      </c>
+      <c r="J47" t="s">
+        <v>295</v>
+      </c>
+      <c r="K47" t="s">
+        <v>296</v>
+      </c>
+      <c r="L47" t="s">
+        <v>297</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>298</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>299</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>300</v>
+      </c>
+      <c r="J48" t="s">
+        <v>301</v>
+      </c>
+      <c r="K48" t="s">
+        <v>302</v>
+      </c>
+      <c r="L48" t="s">
+        <v>303</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>304</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>306</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>307</v>
+      </c>
+      <c r="J49" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" t="s">
+        <v>309</v>
+      </c>
+      <c r="L49" t="s">
+        <v>310</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>311</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>312</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>313</v>
+      </c>
+      <c r="J50" t="s">
+        <v>314</v>
+      </c>
+      <c r="K50" t="s">
+        <v>315</v>
+      </c>
+      <c r="L50" t="s">
+        <v>316</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>317</v>
+      </c>
+      <c r="O50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>319</v>
+      </c>
+      <c r="J51" t="s">
+        <v>320</v>
+      </c>
+      <c r="K51" t="s">
+        <v>321</v>
+      </c>
+      <c r="L51" t="s">
+        <v>322</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>317</v>
+      </c>
+      <c r="O51" t="s">
+        <v>83</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>323</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>324</v>
+      </c>
+      <c r="J52" t="s">
+        <v>325</v>
+      </c>
+      <c r="K52" t="s">
+        <v>326</v>
+      </c>
+      <c r="L52" t="s">
+        <v>327</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>317</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>328</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>329</v>
+      </c>
+      <c r="J53" t="s">
+        <v>330</v>
+      </c>
+      <c r="K53" t="s">
+        <v>331</v>
+      </c>
+      <c r="L53" t="s">
+        <v>332</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>333</v>
+      </c>
+      <c r="O53" t="s">
+        <v>65</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>334</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>335</v>
+      </c>
+      <c r="J54" t="s">
+        <v>336</v>
+      </c>
+      <c r="K54" t="s">
+        <v>337</v>
+      </c>
+      <c r="L54" t="s">
+        <v>338</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>339</v>
+      </c>
+      <c r="O54" t="s">
+        <v>83</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>340</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>341</v>
+      </c>
+      <c r="J55" t="s">
+        <v>342</v>
+      </c>
+      <c r="K55" t="s">
+        <v>343</v>
+      </c>
+      <c r="L55" t="s">
+        <v>344</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>333</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>345</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>346</v>
+      </c>
+      <c r="J56" t="s">
+        <v>347</v>
+      </c>
+      <c r="K56" t="s">
+        <v>348</v>
+      </c>
+      <c r="L56" t="s">
+        <v>349</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>339</v>
+      </c>
+      <c r="O56" t="s">
+        <v>83</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>350</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>351</v>
+      </c>
+      <c r="J57" t="s">
+        <v>352</v>
+      </c>
+      <c r="K57" t="s">
+        <v>353</v>
+      </c>
+      <c r="L57" t="s">
+        <v>354</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>355</v>
+      </c>
+      <c r="O57" t="s">
+        <v>117</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>356</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>357</v>
+      </c>
+      <c r="J58" t="s">
+        <v>358</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>359</v>
+      </c>
+      <c r="O58" t="s">
+        <v>117</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>360</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>361</v>
+      </c>
+      <c r="J59" t="s">
+        <v>362</v>
+      </c>
+      <c r="K59" t="s">
+        <v>363</v>
+      </c>
+      <c r="L59" t="s">
+        <v>364</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>365</v>
+      </c>
+      <c r="O59" t="s">
+        <v>83</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>366</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>367</v>
+      </c>
+      <c r="J60" t="s">
+        <v>368</v>
+      </c>
+      <c r="K60" t="s">
+        <v>369</v>
+      </c>
+      <c r="L60" t="s">
+        <v>370</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>365</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>371</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>372</v>
+      </c>
+      <c r="J61" t="s">
+        <v>373</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>365</v>
+      </c>
+      <c r="O61" t="s">
+        <v>117</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>374</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>375</v>
+      </c>
+      <c r="J62" t="s">
+        <v>376</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>377</v>
+      </c>
+      <c r="O62" t="s">
+        <v>83</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>378</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>379</v>
+      </c>
+      <c r="J63" t="s">
+        <v>380</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>377</v>
+      </c>
+      <c r="O63" t="s">
+        <v>83</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>381</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>382</v>
+      </c>
+      <c r="J64" t="s">
+        <v>383</v>
+      </c>
+      <c r="K64" t="s">
+        <v>384</v>
+      </c>
+      <c r="L64" t="s">
+        <v>385</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>377</v>
+      </c>
+      <c r="O64" t="s">
+        <v>58</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>386</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>387</v>
+      </c>
+      <c r="J65" t="s">
+        <v>388</v>
+      </c>
+      <c r="K65" t="s">
+        <v>389</v>
+      </c>
+      <c r="L65" t="s">
+        <v>390</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>391</v>
+      </c>
+      <c r="O65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>392</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>393</v>
+      </c>
+      <c r="J66" t="s">
+        <v>394</v>
+      </c>
+      <c r="K66" t="s">
+        <v>395</v>
+      </c>
+      <c r="L66" t="s">
+        <v>396</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>391</v>
+      </c>
+      <c r="O66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>397</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>398</v>
+      </c>
+      <c r="J67" t="s">
+        <v>399</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>400</v>
+      </c>
+      <c r="O67" t="s">
+        <v>117</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>401</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>402</v>
+      </c>
+      <c r="J68" t="s">
+        <v>403</v>
+      </c>
+      <c r="K68" t="s">
+        <v>404</v>
+      </c>
+      <c r="L68" t="s">
+        <v>405</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>406</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>407</v>
+      </c>
+      <c r="J69" t="s">
+        <v>408</v>
+      </c>
+      <c r="K69" t="s">
+        <v>409</v>
+      </c>
+      <c r="L69" t="s">
+        <v>410</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>411</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>412</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>413</v>
+      </c>
+      <c r="J70" t="s">
+        <v>414</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>411</v>
+      </c>
+      <c r="O70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>415</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>416</v>
+      </c>
+      <c r="J71" t="s">
+        <v>417</v>
+      </c>
+      <c r="K71" t="s">
+        <v>418</v>
+      </c>
+      <c r="L71" t="s">
+        <v>419</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>420</v>
+      </c>
+      <c r="O71" t="s">
+        <v>83</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>421</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>422</v>
+      </c>
+      <c r="J72" t="s">
+        <v>423</v>
+      </c>
+      <c r="K72" t="s">
+        <v>424</v>
+      </c>
+      <c r="L72" t="s">
+        <v>425</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>420</v>
+      </c>
+      <c r="O72" t="s">
+        <v>65</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>426</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>427</v>
+      </c>
+      <c r="J73" t="s">
+        <v>428</v>
+      </c>
+      <c r="K73" t="s">
+        <v>429</v>
+      </c>
+      <c r="L73" t="s">
+        <v>430</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>420</v>
+      </c>
+      <c r="O73" t="s">
+        <v>117</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>432</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>433</v>
+      </c>
+      <c r="J74" t="s">
+        <v>434</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>435</v>
+      </c>
+      <c r="O74" t="s">
+        <v>83</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>436</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>437</v>
+      </c>
+      <c r="J75" t="s">
+        <v>438</v>
+      </c>
+      <c r="K75" t="s">
+        <v>439</v>
+      </c>
+      <c r="L75" t="s">
+        <v>440</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>441</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>442</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>443</v>
+      </c>
+      <c r="J76" t="s">
+        <v>444</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>445</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>446</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>447</v>
+      </c>
+      <c r="J77" t="s">
+        <v>448</v>
+      </c>
+      <c r="K77" t="s">
+        <v>449</v>
+      </c>
+      <c r="L77" t="s">
+        <v>450</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>451</v>
+      </c>
+      <c r="O77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>452</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>453</v>
+      </c>
+      <c r="J78" t="s">
+        <v>454</v>
+      </c>
+      <c r="K78" t="s">
+        <v>455</v>
+      </c>
+      <c r="L78" t="s">
+        <v>456</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>457</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>458</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>459</v>
+      </c>
+      <c r="J79" t="s">
+        <v>460</v>
+      </c>
+      <c r="K79" t="s">
+        <v>461</v>
+      </c>
+      <c r="L79" t="s">
+        <v>462</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>463</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>464</v>
+      </c>
+      <c r="J80" t="s">
+        <v>465</v>
+      </c>
+      <c r="K80" t="s">
+        <v>466</v>
+      </c>
+      <c r="L80" t="s">
+        <v>467</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>468</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>469</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>470</v>
+      </c>
+      <c r="J81" t="s">
+        <v>465</v>
+      </c>
+      <c r="K81" t="s">
+        <v>471</v>
+      </c>
+      <c r="L81" t="s">
+        <v>472</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>468</v>
+      </c>
+      <c r="O81" t="s">
+        <v>83</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>474</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>475</v>
+      </c>
+      <c r="J82" t="s">
+        <v>476</v>
+      </c>
+      <c r="K82" t="s">
+        <v>477</v>
+      </c>
+      <c r="L82" t="s">
+        <v>478</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>479</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>480</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>481</v>
+      </c>
+      <c r="J83" t="s">
+        <v>482</v>
+      </c>
+      <c r="K83" t="s">
+        <v>483</v>
+      </c>
+      <c r="L83" t="s">
+        <v>484</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>485</v>
+      </c>
+      <c r="O83" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>486</v>
+      </c>
+      <c r="X83" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>489</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>490</v>
+      </c>
+      <c r="J84" t="s">
+        <v>491</v>
+      </c>
+      <c r="K84" t="s">
+        <v>492</v>
+      </c>
+      <c r="L84" t="s">
+        <v>493</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>494</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>495</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>496</v>
+      </c>
+      <c r="J85" t="s">
+        <v>497</v>
+      </c>
+      <c r="K85" t="s">
+        <v>498</v>
+      </c>
+      <c r="L85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>500</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>47468</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>501</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>502</v>
+      </c>
+      <c r="J86" t="s">
+        <v>503</v>
+      </c>
+      <c r="K86" t="s">
+        <v>504</v>
+      </c>
+      <c r="L86" t="s">
+        <v>505</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>506</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_750.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_750.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="588">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Willliam M</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Suzanne H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r542480217-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Amanda A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r528135163-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Kathleen J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r520939730-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>706tiffanyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r518111493-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>M5796IIsandraz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r517446093-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Megan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r495069338-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>leahf7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r492768451-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -303,6 +327,9 @@
     <t>Hotel has a smell as you walk in, the hall carpets are threadbare, the room smells like mildew, beds super uncomfortable, the bathroom wasn't clean. Not a place I'd recommend to anyone.</t>
   </si>
   <si>
+    <t>Mike F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r491530365-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t>The General Manager was great as always, very helpful with anything we asked. The breakfast was great and always very clean, rooms were also very comfortable.</t>
   </si>
   <si>
+    <t>marien120</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r480364783-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -336,6 +366,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>V99RXrussellb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r471738821-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -351,6 +384,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>333ellam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r455423268-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -372,6 +408,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>M7253AEcraigs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r446464387-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -387,6 +426,9 @@
     <t xml:space="preserve">The bed was amazing, and we had a wonderful night's sleep.  Overall a very enjoyable experience!  </t>
   </si>
   <si>
+    <t>Priscilla A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r446194818-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -402,6 +444,9 @@
     <t xml:space="preserve">We have stayed here 3 times over the years traveling from Louisiana to Lubbock Tx and it's always nice. This time we brought two of our fur babies and loved that this is pet friendly. Check in was a breeze and the clerk was so nice. I will definitely stay here in the future. </t>
   </si>
   <si>
+    <t>Diane P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r442365409-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -420,6 +465,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>886andersonp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r412502878-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -438,6 +486,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Debbie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r406228294-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -453,6 +504,9 @@
     <t>Bathroom sink wouldn't drain...other than that we have always had a good experience with this hotel and the manager</t>
   </si>
   <si>
+    <t>MBurkes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r396612158-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -471,6 +525,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Y7474DJgeorger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r391804403-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -489,6 +546,9 @@
     <t>This hotel and Staff could care less if you complain or not, this entire hotel smelled like smoke if your a smoker no problem, then our room was not up to 4 star rating at all, we had looked like pee staines on both comforters on our beds , the room had been smoked in, looked like snot on the walls . It was late after 10:30 when we checked in had reservations 1 week ahead of visit. They said there was no rooms available for our needs 3 Adults 2 children, would have left if it was not so late and very tired of driving all day. Desk clerk could have cared less. I would never ever stay there again.  STAY AWAY,More</t>
   </si>
   <si>
+    <t>Jesse G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r390772680-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -501,6 +561,9 @@
     <t>Okay except there was no clock radio/alarm in the room--I pointed this out to the front desk whenI checked out--I had the alarm on my telephone so I was able to wake on time--I answered the question regarding problems below in the negative as it was not resolved when I checked out--the desk clerk said he would check in to the problem</t>
   </si>
   <si>
+    <t>637gloriab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r390236485-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -516,6 +579,9 @@
     <t>This is the 2nd time we've stayed here. Dispite the worn carpet in the hall and a few minor details in the bathroom, everything else was good. Staff is very helpful and the price is reasonable. We will stay here again!</t>
   </si>
   <si>
+    <t>vgaltman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r383942758-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -532,6 +598,9 @@
   </si>
   <si>
     <t>June 2016</t>
+  </si>
+  <si>
+    <t>SheBoice</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r382460901-Super_8_Weatherford-Weatherford_Texas.html</t>
@@ -566,6 +635,9 @@
 This hotel has potential in every area until you walk into the rooms. I just feel...I would avoid this hotel until Renovations are done......... MASSIVE renovations......I pride myself on giving good reviews when we visit places, because my husband and I travel frequently with his work ....that being said .....we had an 8 hour drive down to Texas for a family wedding and an 8-hour drive home the day after, it was a very quick trip!!!.... the last thing I needed was to have to go into three different rooms before I found one that was halfway presentable. I had no choice but to stay here.I have posted pictures.The decor was completely shredded in one room (lamp, carpet, bedding)The second room was so smoke-filled in a non-smoking room that we couldnt breathe and the third room had stains on the mattress, a very strong mildew smell from the air conditioner (which made our wedding attire have a sour smell we found out the next day we people hugged us) and that's when we discovered the yellow water throughout the entire hotel.... by then it was almost midnight.So when I say massive Renovations, I mean they need to fix even their pipes. The gentleman at the front desk DID attempt to make us happy but after three dirty rooms, we still weren't satisfied and realized we just had to get the babies to sleep.This hotel has potential in every area until you walk into the rooms. I just feel they've been completely neglected and the owners need to spend the money to clean them up. The rooms are the most crucial part of a hotel stay. I gave this hotel one star because it would not allow me to give it a zero.More</t>
   </si>
   <si>
+    <t>OldTownie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r380958470-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -596,6 +668,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>labdan62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r367751454-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -614,6 +689,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Kman47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r366744143-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -629,6 +707,9 @@
     <t>This is a large Super 8.  Very clean, large rooms.  Very good WiFi.  Hallway carpets are a bit worn.  Breakfast was good and well stocked.My wake up call went to the wrong room, but other than that a pleasant stay.</t>
   </si>
   <si>
+    <t>Todco250</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r356987427-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -647,6 +728,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>PJL555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r356492415-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -665,6 +749,9 @@
     <t>as a traveling merchandiser staying/living in a hotel is a big part of my job. Every super 8 i have stayed at is exactly the same horrible, EXCEPT the Super 8 in Weatherford, TX. This hotel is without a doubt, THE BEST Super 8 i have ever stayed in. The rooms are very spacious with numerous outlets, comfortable beds (Beauty Rest mattress, with pillow top), 54" flat screen, excellent working micro/fridge, large bathroom and CLEAN.  The wifi has a strong signal and plenty of bandwidth to enjoy internet movies or games without buffering interruption. If i hadn't seen the super 8 sign i would have never believe it was a super 8. The staff is super friendly and courteous. I appreciate their hospitality and going the extra mile to make our stay super.More</t>
   </si>
   <si>
+    <t>Don V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r356223753-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -680,6 +767,9 @@
     <t>The hotel is nice and served our needs, we were comfortable with the room/amenities. The only issue is the continental breakfast apart from waffles only had limited verity of options, would not technically class as continental. But would definitely stay again as the rates are competitively low and location is near to town center.</t>
   </si>
   <si>
+    <t>S475YHadamh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r340982429-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -698,6 +788,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>dimas277</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r340452579-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -713,6 +806,9 @@
     <t>Nice motel and good location. Clean room and a satisfactory breakfast. I would stay at this motel again  oh yes funny ft desk management</t>
   </si>
   <si>
+    <t>chacochaos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r339519788-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -722,6 +818,9 @@
     <t>01/12/2016</t>
   </si>
   <si>
+    <t>judithp963</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r331026887-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -734,6 +833,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>peter_neubert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r330502340-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -749,6 +851,9 @@
     <t>I was intending to drive home, but darkness and heavy rains made it seem prudent to stop at the Super 8 instead of subjecting myself to several more hours of stressful driving. The check-in process for an unreserved overnight stay was efficient and courteous, the room was basic but clean and quite comfortable. I slept well – much better than I would have if I had continued the drive! I got up early the next day to continue the drive and did not take advantage of the free breakfast. I will (plan to) stay here again.</t>
   </si>
   <si>
+    <t>400dagen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r321262424-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -767,6 +872,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Carol H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r313458725-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -785,6 +893,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>tinap231</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r311267974-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -803,6 +914,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Will G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r309958579-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -821,6 +935,9 @@
     <t>I went to the Weatherford area for my 40th Class Reunion weekend.  My wife made the reservation which was based on money.  We had stayed there previously, also reservations made by her.  It had a bed that was clean and there were no strange odors.  This is the best I can say for the place.  The desk person had about as much of a customer relations demeanor as the concrete in the drive outside.  There were many other options in the area that other travelers were clearly choosing based on the cars in the parking lots.  You would have thought he would have been a little more congenial that we were staying there. There was extremely worn carpet in the halls which gave clear indication how little the owner felt about appearance to those staying there.If a bed is all you want then it comes cheaply.  If you are wanting a little more for your money.....well like I said there are many outstanding options in the same area for a very reasonable price.More</t>
   </si>
   <si>
+    <t>S5942LNjuliew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r292795803-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -839,6 +956,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>ccmoss98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r286447566-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -848,6 +968,9 @@
     <t>07/07/2015</t>
   </si>
   <si>
+    <t>Matty C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r285635986-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -863,6 +986,9 @@
     <t xml:space="preserve">Had a good stay with my little family.  Rooms were nice and clean and beds super comfortable.  The staff was friendly both when checking in @midnight and checking out. Breakfast was good and filling and had a variety of choices that were enough for anyone. Nothing needs to be changed!!  </t>
   </si>
   <si>
+    <t>Steve M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r282351256-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -881,6 +1007,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Johnny O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r281549535-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -896,6 +1025,9 @@
     <t>every  time I am through this area I stay here. Great staff, clean rooms with all the amenities. New flat screen tv,microwave,fridge. the MOST comfy beds. there are plenty of the popular restaurants within walking distance. Nice motel,good price for this area.</t>
   </si>
   <si>
+    <t>Irene W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r279622403-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -911,6 +1043,9 @@
     <t>Front desk person was nice. Room was clean enough and bed and pillows comfortable.....but the mosquito that bit me 6 times I hope is dead.....also I awoke to my van covered in bird crap!!!! Never going back.</t>
   </si>
   <si>
+    <t>making6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r267408662-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -929,6 +1064,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>lmk0918</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r264986530-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -950,6 +1088,9 @@
     <t>This Super 8 is REALLY hard to get to. It is surrounded by strip malls and large parking lots which are confusing. I tried to get to Target on the other side of the freeway for some grocery staples (my husband and I eat organic/vegetarian, none of the nearby chain restaurants would have worked for us), and got stuck going the wrong way on the freeway in BOTH directions, 6 miles out of the way. Be very careful navigating this area! It turned out there was a Wal Mart at the end of the street which my phone did not tell me about. Uncool.The room was clean enough. Very spacious; larger than necessary, I thought. The corners along the walls were caked in dust. The air conditioner smelled horribly of mildew when turned on. On the plus side, the proprietor was very personable and a joker. There is an ENORMOUS chandelier in the entryway.More</t>
   </si>
   <si>
+    <t>Stephen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r259971172-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -968,6 +1109,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Shane W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r246765694-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -986,6 +1130,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>ceciliab505</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r245556645-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1001,6 +1148,9 @@
     <t xml:space="preserve">Very clean excellent service very helpful I called to get directions and super nice and gave me exact directions would stay there afain </t>
   </si>
   <si>
+    <t>Walt S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r242963655-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1016,6 +1166,9 @@
     <t>Our truck broke down west of Weatherford,  and was towed to a dealership here. We are having to spend 4 nights here here and the manager, Dinesh, has been very helpful, and is making us feel at home. They also have the lowest rates around.All in all, we couldn't be happier with our choice. My wife talked Dinesh into letting her put up the Christmas tree, so she is happy too.</t>
   </si>
   <si>
+    <t>mlhenterprisesinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r241415000-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1034,6 +1187,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>rayt190</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r239833732-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1052,6 +1208,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>ourtexastravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r237497106-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1067,6 +1226,9 @@
     <t>The room is nice, spacious and clean. Check in was quick and the receptionist was nice and attentive. They have a pretty good channel selection on their t.v. Pretty nice town and pretty good hotel. We'll stay here again.</t>
   </si>
   <si>
+    <t>CKCameron</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r234800769-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1082,6 +1244,9 @@
     <t>We needed a place to stop and rest on a long road trip.  Not a resort, but clean and quiet and cheap.  Mattress was a little flat and the towels were thin.  The TV was good and the breakfast was adequate.</t>
   </si>
   <si>
+    <t>wdalton2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r232722830-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1100,6 +1265,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Madeline L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r220977457-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1280,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Dominga C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r214394130-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1130,6 +1301,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Cooper B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r214215429-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1145,6 +1319,9 @@
     <t>I would really like to thank the maintenance man that was on duty the morning of July5,2014. As we were leaving my wife had black spell this gentleman came and help me get her in my truck, and made sure that seat belt was on.</t>
   </si>
   <si>
+    <t>Roberta W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r213814530-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1331,9 @@
     <t>07/05/2014</t>
   </si>
   <si>
+    <t>Rebecca R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r210656510-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1166,6 +1346,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Glynn F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r210471358-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1358,9 @@
     <t>06/15/2014</t>
   </si>
   <si>
+    <t>Jessica S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r209792150-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1190,6 +1376,9 @@
     <t>Sweet staff, room was very clean. Beds were harder than I like, but my husband was very comfortable.</t>
   </si>
   <si>
+    <t>Hal Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r205008406-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1208,6 +1397,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Z P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r204355431-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1223,6 +1415,9 @@
     <t xml:space="preserve">We stayed at this hotel for the first time recently. The hotel and rooms were clean, although the bedding could be upgraded.  </t>
   </si>
   <si>
+    <t>mercynurse62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r200649664-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1235,6 +1430,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Lesa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r195975656-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1250,6 +1448,9 @@
     <t xml:space="preserve">On our way home to abilene from Dallas the roads got icy so we stopped here for the night. Front desk clerk was friendly and knowledgeable. The lobby was clean and uncluttered. We had a smoking, king bed room. It was clean and well apportioned. Pleasantly surprised to have frig and microwave in the room. The bed was firm and comfortable. The ice machine on our floor was out of order and the Coke machine vended Sprite instead of Mr Pibb. The hotel is dog friendly and at $70/night, it was a good value. We would stay here again and recommend it to others. </t>
   </si>
   <si>
+    <t>Badgelady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r195427902-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1268,6 +1469,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Dennis M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r194742001-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1277,6 +1481,9 @@
     <t>02/20/2014</t>
   </si>
   <si>
+    <t>Bryan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r186513224-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1295,6 +1502,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>rfcowboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r186112192-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1520,9 @@
     <t>I have stayed at this before but in November I stayed here only to have my truck vandelized. They actually crawled under the truck and stole my exhaust in the parking lot of this hotel. I was informed by the manager that the cameras doesn' cover the whole parking lot and they are not going to do anything to cover my 1,000.00 ded on my insurance. NOW I HAVE TO TURN THIS OVER TO MY ATTORNEY. They should be responsible enough to at least install a suffcient security system to protect their customers.</t>
   </si>
   <si>
+    <t>teutonicrider</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r185008189-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1328,6 +1541,9 @@
     <t>During a recent trip to Weatherford, I booked a room at the Super 8 because it offered the lowest price among the five top-rated hotels by a significant margin. Previous reviewers had mentioned the friendliness and cleanliness of the facility, and after spending four nights I have to agree.  I was greeted warmly by the hotel manager, Dinesh, and found the room to be exceptionally clean and tidy. The in-room amenities are straightforward with no frills, but far exceed the quality you would expect in this price range.  The continental breakfast was a nice touch in the morning, and the hotel is very well-located in proximity to shopping and dining options in addition to having excellent freeway access.  There is an exercise room and pool, as well as a business center with computer.  Some reviewers have spoken of a too-firm bed, but that is subjective and I personally found the mattress extremely comfortable. About the only drawback I noted was the lack of a guest laundry for washing my workout clothing, although a commercial laundromat is just a short drive away.If you are visiting Weatherford for either a short or extended stay, it would be well worth your while to take a look at the Super 8.  You would be hard pressed to find a better value for the money.More</t>
   </si>
   <si>
+    <t>Kathryn Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r175751085-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1556,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Haywhitmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r167704465-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1358,6 +1577,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Laura W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r163025803-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1370,6 +1592,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Adriana F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r159914304-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1406,6 +1631,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>tjduprey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r153398881-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1430,15 +1658,15 @@
     <t>10/22/2012</t>
   </si>
   <si>
-    <t>rayt190</t>
-  </si>
-  <si>
     <t>This was a very nice clean motel, the price was fair. The staff friendly and helpful. The only negitive thing was the orange barrels detouring traffic due to construction near the hotel. The City of Weatherford or the Texas Highway department should do a better job of routing traffic to near by businesses.</t>
   </si>
   <si>
     <t>October 2012</t>
   </si>
   <si>
+    <t>Sue H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r143445487-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1682,9 @@
     <t>The hotel looks really nice, but once inside it is need of repairs! The person who greeted us was quite rude!!!!!!!! Ask me if my credit card was bogus and if he'd had to run it again!! I had my pets with me and he asked if they were well trained, and of course they are.... He made a soft statement of "well they'd better be!!"  If we weren't so tired, I would have gone to another hotel, but I was stuck! Once we got to the room... it was basically clean, with the bathroom fan hanging on by wires, a broken light over the sink, no ashtrays in a smoking room, only 2 towels that were thin and torn, and the clock wouldnt work.  Also the walls are paper think so you can hear every body around you!! Definitely not the quality of many other Super 8's I've used!!!More</t>
   </si>
   <si>
+    <t>KPPP4872</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r142470473-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1703,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>KeepinNTouch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r122494612-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1499,6 +1733,9 @@
     <t>Was an overnight stop during a cross country trek from the east to west coasts .... A pleasant surprise at the level of quality found, given the discount price range.  Thus, an EXCELLENT VALUE!More</t>
   </si>
   <si>
+    <t>EMC5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r118409755-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1517,6 +1754,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Steve48Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r117336999-Super_8_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1533,6 +1773,9 @@
   </si>
   <si>
     <t>August 2011</t>
+  </si>
+  <si>
+    <t>Freba</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d266041-r6093703-Super_8_Weatherford-Weatherford_Texas.html</t>
@@ -2055,43 +2298,47 @@
       <c r="A2" t="n">
         <v>47468</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>179537</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -2111,50 +2358,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>47468</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>13628</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2178,50 +2429,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>47468</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>4055</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2245,50 +2500,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>47468</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>13561</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2312,50 +2571,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>47468</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>179538</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2379,50 +2642,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>47468</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>179539</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2446,50 +2713,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>47468</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>20275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
         <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>83</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2513,50 +2784,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>47468</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>179540</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
         <v>89</v>
-      </c>
-      <c r="O9" t="s">
-        <v>83</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2580,50 +2855,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>47468</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>899</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>96</v>
       </c>
-      <c r="J10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>89</v>
-      </c>
-      <c r="O10" t="s">
-        <v>83</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2647,50 +2926,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>47468</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>179541</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2714,50 +2997,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>47468</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>179542</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2781,50 +3068,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>47468</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>179543</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2848,50 +3139,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>47468</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>179544</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2915,50 +3210,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>47468</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>179545</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2972,50 +3271,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>47468</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3035,50 +3338,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>47468</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>179546</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3102,50 +3409,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>47468</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>22655</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3169,50 +3480,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>47468</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>179547</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3232,50 +3547,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>47468</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>179548</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3299,50 +3618,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>47468</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>150956</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
         <v>12</v>
       </c>
       <c r="L21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O21" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3366,50 +3689,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>47468</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>179549</v>
+      </c>
+      <c r="C22" t="s">
+        <v>181</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3433,50 +3760,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>47468</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>179550</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3490,50 +3821,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>47468</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>179551</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="J24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3547,50 +3882,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>47468</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>179552</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3614,35 +3953,39 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>47468</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>150956</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="J26" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -3650,10 +3993,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3674,51 +4017,52 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>47468</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>179553</v>
+      </c>
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="J27" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3732,50 +4076,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>47468</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>179554</v>
+      </c>
+      <c r="C28" t="s">
+        <v>219</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="J28" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3793,50 +4141,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>47468</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>6594</v>
+      </c>
+      <c r="C29" t="s">
+        <v>225</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3850,50 +4202,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>47468</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>179555</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="J30" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3913,50 +4269,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>47468</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>5406</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="J31" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O31" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3980,50 +4340,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>47468</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>179556</v>
+      </c>
+      <c r="C32" t="s">
+        <v>245</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J32" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4047,50 +4411,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>47468</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>179557</v>
+      </c>
+      <c r="C33" t="s">
+        <v>252</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4114,35 +4482,39 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>47468</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>179558</v>
+      </c>
+      <c r="C34" t="s">
+        <v>258</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -4150,10 +4522,10 @@
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O34" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4174,36 +4546,37 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>47468</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>179559</v>
+      </c>
+      <c r="C35" t="s">
+        <v>262</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="J35" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -4211,10 +4584,10 @@
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="O35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4227,51 +4600,52 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>47468</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>179560</v>
+      </c>
+      <c r="C36" t="s">
+        <v>267</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="J36" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="K36" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="O36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4287,50 +4661,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>47468</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>179561</v>
+      </c>
+      <c r="C37" t="s">
+        <v>273</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="J37" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="K37" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="L37" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4350,50 +4728,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>47468</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>24231</v>
+      </c>
+      <c r="C38" t="s">
+        <v>280</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="J38" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="K38" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="O38" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4417,50 +4799,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>47468</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>179562</v>
+      </c>
+      <c r="C39" t="s">
+        <v>287</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="J39" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="K39" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O39" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4484,50 +4870,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>47468</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>44154</v>
+      </c>
+      <c r="C40" t="s">
+        <v>294</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="J40" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4541,50 +4931,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>47468</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>179563</v>
+      </c>
+      <c r="C41" t="s">
+        <v>301</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="J41" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="K41" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="O41" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4608,35 +5002,39 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>47468</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>179564</v>
+      </c>
+      <c r="C42" t="s">
+        <v>308</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="J42" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4644,10 +5042,10 @@
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="O42" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4668,51 +5066,52 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>47468</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>179565</v>
+      </c>
+      <c r="C43" t="s">
+        <v>312</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="J43" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="K43" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="O43" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4726,50 +5125,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>47468</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>457</v>
+      </c>
+      <c r="C44" t="s">
+        <v>318</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="J44" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4789,50 +5192,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>47468</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>48017</v>
+      </c>
+      <c r="C45" t="s">
+        <v>325</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="J45" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="K45" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="O45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4852,50 +5259,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>47468</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>179566</v>
+      </c>
+      <c r="C46" t="s">
+        <v>331</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="J46" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="K46" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="L46" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="O46" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4919,50 +5330,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>47468</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>179567</v>
+      </c>
+      <c r="C47" t="s">
+        <v>337</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="J47" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="K47" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4982,50 +5397,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>47468</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>179568</v>
+      </c>
+      <c r="C48" t="s">
+        <v>344</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="J48" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="K48" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5045,50 +5464,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>47468</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>9536</v>
+      </c>
+      <c r="C49" t="s">
+        <v>352</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="J49" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="K49" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="L49" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5112,50 +5535,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>47468</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>101182</v>
+      </c>
+      <c r="C50" t="s">
+        <v>359</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="J50" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="K50" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="L50" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="O50" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5173,50 +5600,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>47468</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>179569</v>
+      </c>
+      <c r="C51" t="s">
+        <v>366</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="J51" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="K51" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="O51" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5240,50 +5671,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>47468</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>179570</v>
+      </c>
+      <c r="C52" t="s">
+        <v>372</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="J52" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="K52" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5297,50 +5732,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>47468</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>179571</v>
+      </c>
+      <c r="C53" t="s">
+        <v>378</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="J53" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="K53" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5364,50 +5803,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>47468</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>179572</v>
+      </c>
+      <c r="C54" t="s">
+        <v>385</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="J54" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="K54" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="O54" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5425,50 +5868,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>47468</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>179573</v>
+      </c>
+      <c r="C55" t="s">
+        <v>392</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="J55" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="K55" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="L55" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5488,50 +5935,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>47468</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>179574</v>
+      </c>
+      <c r="C56" t="s">
+        <v>398</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="J56" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="K56" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="L56" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="O56" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5551,50 +6002,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>47468</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>179575</v>
+      </c>
+      <c r="C57" t="s">
+        <v>404</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="J57" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="K57" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="L57" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="O57" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5618,35 +6073,39 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>47468</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>179576</v>
+      </c>
+      <c r="C58" t="s">
+        <v>411</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="J58" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5654,10 +6113,10 @@
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="O58" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5678,51 +6137,52 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>47468</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>179577</v>
+      </c>
+      <c r="C59" t="s">
+        <v>416</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="J59" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="K59" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="O59" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5736,50 +6196,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>47468</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>179578</v>
+      </c>
+      <c r="C60" t="s">
+        <v>423</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="J60" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="K60" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="L60" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5803,35 +6267,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>47468</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>179579</v>
+      </c>
+      <c r="C61" t="s">
+        <v>429</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>372</v>
+        <v>431</v>
       </c>
       <c r="J61" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -5839,10 +6307,10 @@
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="O61" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5863,36 +6331,37 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>47468</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>6358</v>
+      </c>
+      <c r="C62" t="s">
+        <v>433</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="J62" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -5900,10 +6369,10 @@
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
       <c r="O62" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -5924,36 +6393,37 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>47468</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>89359</v>
+      </c>
+      <c r="C63" t="s">
+        <v>438</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="J63" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -5961,10 +6431,10 @@
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
       <c r="O63" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5985,51 +6455,52 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>47468</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>2798</v>
+      </c>
+      <c r="C64" t="s">
+        <v>442</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="J64" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="K64" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
       <c r="L64" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
       <c r="O64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6053,50 +6524,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>47468</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>179580</v>
+      </c>
+      <c r="C65" t="s">
+        <v>448</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="J65" t="s">
-        <v>388</v>
+        <v>451</v>
       </c>
       <c r="K65" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="L65" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="O65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6110,50 +6585,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>47468</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>179581</v>
+      </c>
+      <c r="C66" t="s">
+        <v>455</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="J66" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="K66" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="L66" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="O66" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6177,35 +6656,39 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>47468</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>120337</v>
+      </c>
+      <c r="C67" t="s">
+        <v>461</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>398</v>
+        <v>463</v>
       </c>
       <c r="J67" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6213,10 +6696,10 @@
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
       <c r="O67" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6237,42 +6720,43 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>47468</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>179582</v>
+      </c>
+      <c r="C68" t="s">
+        <v>466</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="J68" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="K68" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="L68" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -6301,50 +6785,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>47468</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>115523</v>
+      </c>
+      <c r="C69" t="s">
+        <v>472</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="J69" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="K69" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="L69" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="O69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6358,35 +6846,39 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>47468</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>13283</v>
+      </c>
+      <c r="C70" t="s">
+        <v>479</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="J70" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6394,10 +6886,10 @@
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="O70" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6418,51 +6910,52 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>47468</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>79747</v>
+      </c>
+      <c r="C71" t="s">
+        <v>483</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="J71" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="K71" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="L71" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="O71" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6486,50 +6979,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>47468</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>179583</v>
+      </c>
+      <c r="C72" t="s">
+        <v>490</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>421</v>
+        <v>491</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="J72" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K72" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="L72" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="O72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -6553,50 +7050,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>47468</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>179584</v>
+      </c>
+      <c r="C73" t="s">
+        <v>496</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="J73" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="K73" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="L73" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="O73" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6620,35 +7121,39 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>47468</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>16034</v>
+      </c>
+      <c r="C74" t="s">
+        <v>503</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>432</v>
+        <v>504</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>433</v>
+        <v>505</v>
       </c>
       <c r="J74" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -6656,10 +7161,10 @@
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
       <c r="O74" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -6680,51 +7185,52 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>47468</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>179585</v>
+      </c>
+      <c r="C75" t="s">
+        <v>508</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="J75" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="K75" t="s">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="L75" t="s">
-        <v>440</v>
+        <v>513</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="O75" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -6748,35 +7254,39 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>440</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>47468</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>27764</v>
+      </c>
+      <c r="C76" t="s">
+        <v>515</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>443</v>
+        <v>517</v>
       </c>
       <c r="J76" t="s">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -6784,10 +7294,10 @@
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>445</v>
+        <v>519</v>
       </c>
       <c r="O76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -6808,51 +7318,52 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>47468</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>179586</v>
+      </c>
+      <c r="C77" t="s">
+        <v>520</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="J77" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="K77" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="L77" t="s">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="O77" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -6876,50 +7387,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>450</v>
+        <v>525</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>47468</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>179585</v>
+      </c>
+      <c r="C78" t="s">
+        <v>520</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>452</v>
+        <v>527</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="J78" t="s">
-        <v>454</v>
+        <v>529</v>
       </c>
       <c r="K78" t="s">
-        <v>455</v>
+        <v>530</v>
       </c>
       <c r="L78" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>457</v>
+        <v>532</v>
       </c>
       <c r="O78" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -6943,41 +7458,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>47468</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>179587</v>
+      </c>
+      <c r="C79" t="s">
+        <v>533</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>458</v>
+        <v>534</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="J79" t="s">
-        <v>460</v>
+        <v>536</v>
       </c>
       <c r="K79" t="s">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="L79" t="s">
-        <v>462</v>
+        <v>538</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -7006,50 +7525,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>462</v>
+        <v>538</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>47468</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>179571</v>
+      </c>
+      <c r="C80" t="s">
+        <v>385</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>463</v>
+        <v>539</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>464</v>
+        <v>540</v>
       </c>
       <c r="J80" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="K80" t="s">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="L80" t="s">
-        <v>467</v>
+        <v>542</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>468</v>
+        <v>543</v>
       </c>
       <c r="O80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7073,50 +7596,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>467</v>
+        <v>542</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>47468</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>8443</v>
+      </c>
+      <c r="C81" t="s">
+        <v>544</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="J81" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="K81" t="s">
-        <v>471</v>
+        <v>547</v>
       </c>
       <c r="L81" t="s">
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="M81" t="n">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>468</v>
+        <v>543</v>
       </c>
       <c r="O81" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -7140,50 +7667,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>473</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>47468</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>179588</v>
+      </c>
+      <c r="C82" t="s">
+        <v>550</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>474</v>
+        <v>551</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>475</v>
+        <v>552</v>
       </c>
       <c r="J82" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="K82" t="s">
-        <v>477</v>
+        <v>554</v>
       </c>
       <c r="L82" t="s">
-        <v>478</v>
+        <v>555</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>479</v>
+        <v>556</v>
       </c>
       <c r="O82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7207,50 +7738,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>478</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>47468</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>179589</v>
+      </c>
+      <c r="C83" t="s">
+        <v>557</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="J83" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
       <c r="K83" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="L83" t="s">
-        <v>484</v>
+        <v>562</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="O83" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7272,56 +7807,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="X83" t="s">
-        <v>487</v>
+        <v>565</v>
       </c>
       <c r="Y83" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>47468</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>179590</v>
+      </c>
+      <c r="C84" t="s">
+        <v>567</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>489</v>
+        <v>568</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="J84" t="s">
-        <v>491</v>
+        <v>570</v>
       </c>
       <c r="K84" t="s">
-        <v>492</v>
+        <v>571</v>
       </c>
       <c r="L84" t="s">
-        <v>493</v>
+        <v>572</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="O84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7345,50 +7884,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>493</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>47468</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C85" t="s">
+        <v>574</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>495</v>
+        <v>575</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>496</v>
+        <v>576</v>
       </c>
       <c r="J85" t="s">
-        <v>497</v>
+        <v>577</v>
       </c>
       <c r="K85" t="s">
-        <v>498</v>
+        <v>578</v>
       </c>
       <c r="L85" t="s">
-        <v>499</v>
+        <v>579</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="O85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7408,41 +7951,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>499</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>47468</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>179591</v>
+      </c>
+      <c r="C86" t="s">
+        <v>581</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>501</v>
+        <v>582</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>502</v>
+        <v>583</v>
       </c>
       <c r="J86" t="s">
-        <v>503</v>
+        <v>584</v>
       </c>
       <c r="K86" t="s">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="L86" t="s">
-        <v>505</v>
+        <v>586</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
@@ -7471,7 +8018,7 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>506</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
